--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_trimester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>-0.02128444168333563</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02212210853421776</v>
+        <v>-0.01885046112689924</v>
       </c>
       <c r="H2" t="n">
-        <v>3.935582917065518</v>
+        <v>11.43549167344165</v>
       </c>
       <c r="I2" t="n">
-        <v>2.645522101682431</v>
+        <v>70.83923459724811</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.002664891383783825</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0118767241296545</v>
+        <v>-0.006403498019725742</v>
       </c>
       <c r="H3" t="n">
-        <v>-545.6738537985357</v>
+        <v>-340.2911450234623</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05321994618623679</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06647768380626172</v>
+        <v>0.07244115284276566</v>
       </c>
       <c r="H4" t="n">
-        <v>24.91121951463663</v>
+        <v>36.11654658437003</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.0852934825407035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05615293948738601</v>
+        <v>0.08787563435627133</v>
       </c>
       <c r="H5" t="n">
-        <v>-34.16502900958596</v>
+        <v>3.027372946503362</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.0554920936022294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02479061633903169</v>
+        <v>0.04036126285929701</v>
       </c>
       <c r="H6" t="n">
-        <v>-55.32585864081415</v>
+        <v>-27.26664243629205</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.07491945851042606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07739481865323694</v>
+        <v>0.05095743817488263</v>
       </c>
       <c r="H7" t="n">
-        <v>3.304028341937901</v>
+        <v>-31.98370731978634</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.01989470793288118</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02196971893861968</v>
+        <v>0.004457891063819145</v>
       </c>
       <c r="H8" t="n">
-        <v>10.42996465562084</v>
+        <v>122.4074215055518</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.007233984490205318</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002485649343241068</v>
+        <v>-0.003488549258619251</v>
       </c>
       <c r="H9" t="n">
-        <v>-134.3607225949488</v>
+        <v>51.77554965257829</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04956874841392311</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0236558225189106</v>
+        <v>-0.03724368750435578</v>
       </c>
       <c r="H10" t="n">
-        <v>-52.27674033370179</v>
+        <v>24.86457960698763</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.07728189684970925</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0539080867153489</v>
+        <v>-0.06319637835264041</v>
       </c>
       <c r="H11" t="n">
-        <v>-30.24487116279715</v>
+        <v>18.22615524624229</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.07980687010666844</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06808497370848676</v>
+        <v>-0.0772223572828591</v>
       </c>
       <c r="H12" t="n">
-        <v>-14.68782873268229</v>
+        <v>3.238459070447097</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.0456853607372041</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04214867697861539</v>
+        <v>-0.03610588405226419</v>
       </c>
       <c r="H13" t="n">
-        <v>-7.74139396410323</v>
+        <v>20.96837264795594</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05569564680090808</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03656347288290089</v>
+        <v>-0.04941011081743683</v>
       </c>
       <c r="H14" t="n">
-        <v>-34.35129137901537</v>
+        <v>11.28550675771804</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08457829896791694</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08896610093714816</v>
+        <v>-0.110765052308919</v>
       </c>
       <c r="H15" t="n">
-        <v>5.187857905366061</v>
+        <v>-30.96155120231903</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.1551086605234518</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1763711897612053</v>
+        <v>-0.1495430293261399</v>
       </c>
       <c r="H16" t="n">
-        <v>13.70815089628003</v>
+        <v>3.588214338599361</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.196307304145773</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1704502099745694</v>
+        <v>-0.1833059240349867</v>
       </c>
       <c r="H17" t="n">
-        <v>-13.17174329489175</v>
+        <v>6.622973183479611</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1089990278022111</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1153306211970195</v>
+        <v>-0.09242055470663356</v>
       </c>
       <c r="H18" t="n">
-        <v>5.80885309022909</v>
+        <v>15.20974400401142</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.08814841109674791</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.08294033976246569</v>
+        <v>-0.08125691104950103</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.908298594929938</v>
+        <v>7.818064967368575</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.09184313783912948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.106024546426902</v>
+        <v>0.09689795896768813</v>
       </c>
       <c r="H20" t="n">
-        <v>15.44090165191479</v>
+        <v>5.503754823155727</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07533414722486551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.151745947610324</v>
+        <v>0.1364446309677832</v>
       </c>
       <c r="H21" t="n">
-        <v>101.4304975901251</v>
+        <v>81.11923476150665</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1204592976011019</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1104787281127246</v>
+        <v>0.1215781791715561</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.285428926729848</v>
+        <v>0.9288461685700257</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1312986137888283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1609345673996641</v>
+        <v>0.1559083623188671</v>
       </c>
       <c r="H23" t="n">
-        <v>22.57141393625089</v>
+        <v>18.74334223331515</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.09539283949644414</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09502594754589833</v>
+        <v>0.1030611058986928</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.3846116254454225</v>
+        <v>8.038618456822956</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.08579711767041676</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07721971331640304</v>
+        <v>0.07842019325055707</v>
       </c>
       <c r="H25" t="n">
-        <v>-9.997310617080609</v>
+        <v>-8.59810285025843</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.03839809538484177</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03465841015450098</v>
+        <v>0.02783062241051438</v>
       </c>
       <c r="H26" t="n">
-        <v>-9.739246681013988</v>
+        <v>-27.52082588580438</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.03582845994197422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02762039824953164</v>
+        <v>0.03967890784259002</v>
       </c>
       <c r="H27" t="n">
-        <v>-22.9093343831577</v>
+        <v>10.74689759719443</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.09796179107594548</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1286453265099413</v>
+        <v>-0.1150055424383736</v>
       </c>
       <c r="H28" t="n">
-        <v>31.32194205208866</v>
+        <v>-17.39836641942862</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1088522038387277</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.08530492311445791</v>
+        <v>-0.09718574415401816</v>
       </c>
       <c r="H29" t="n">
-        <v>-21.63234173848862</v>
+        <v>10.71770646186846</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1219412424932649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1221181221187124</v>
+        <v>0.1241368664579083</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1450531598915434</v>
+        <v>1.800558957536173</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1076118874153121</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1201223478609565</v>
+        <v>0.1302624779911646</v>
       </c>
       <c r="H31" t="n">
-        <v>11.62553761125121</v>
+        <v>21.04840935317483</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04499552197252324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0586922760625298</v>
+        <v>0.05938282121462782</v>
       </c>
       <c r="H32" t="n">
-        <v>30.44026047385463</v>
+        <v>31.97495797668546</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08487522191377532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07832350608601278</v>
+        <v>0.08839402097093793</v>
       </c>
       <c r="H33" t="n">
-        <v>-7.719232633545774</v>
+        <v>4.145849610546358</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.0004660235177815866</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01230943485556706</v>
+        <v>0.01338514441063399</v>
       </c>
       <c r="H34" t="n">
-        <v>-2741.376322414737</v>
+        <v>2972.203633488572</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.04093434214336689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05893160420387214</v>
+        <v>0.05572032229598232</v>
       </c>
       <c r="H35" t="n">
-        <v>43.96616903594619</v>
+        <v>36.12121113570011</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0415113657231789</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03254537516929375</v>
+        <v>0.04311088057838562</v>
       </c>
       <c r="H36" t="n">
-        <v>-21.59888116829356</v>
+        <v>3.853197377010394</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.04216040373967738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02790097410660025</v>
+        <v>0.05247243738297729</v>
       </c>
       <c r="H37" t="n">
-        <v>-33.82185265853492</v>
+        <v>24.45904860629976</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1039739096269103</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.0928928041410623</v>
+        <v>-0.1170483052847939</v>
       </c>
       <c r="H38" t="n">
-        <v>-10.65758277784336</v>
+        <v>-12.57468888570072</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.09852995720668313</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1008392934511521</v>
+        <v>-0.1169153396642076</v>
       </c>
       <c r="H39" t="n">
-        <v>2.343790974784195</v>
+        <v>-18.65968785407878</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1323218375265205</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1285032503610345</v>
+        <v>0.1291273562273216</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.885832933449599</v>
+        <v>-2.414175436884056</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1267009868675925</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1343528642710017</v>
+        <v>0.128258369512645</v>
       </c>
       <c r="H41" t="n">
-        <v>6.039319497491923</v>
+        <v>1.229179569595622</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.09447104872146661</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0714480996448688</v>
+        <v>0.0825137460850929</v>
       </c>
       <c r="H42" t="n">
-        <v>-24.3703752505992</v>
+        <v>-12.65710796926578</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1058719362354479</v>
       </c>
       <c r="G43" t="n">
-        <v>0.09426221353390607</v>
+        <v>0.1147767060700382</v>
       </c>
       <c r="H43" t="n">
-        <v>-10.96581692406479</v>
+        <v>8.410887862470984</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.01216440566173687</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.02476501888362003</v>
+        <v>-0.05675120927024847</v>
       </c>
       <c r="H44" t="n">
-        <v>103.5859340133516</v>
+        <v>-366.5349943792106</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.03656027190585381</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.03966467187442657</v>
+        <v>-0.03205542165699966</v>
       </c>
       <c r="H45" t="n">
-        <v>8.491184027752558</v>
+        <v>12.32170882222805</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05457460206694808</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06781537399769734</v>
+        <v>0.06726437074872002</v>
       </c>
       <c r="H46" t="n">
-        <v>24.26178374055108</v>
+        <v>23.25215063630711</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04037053293827826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0620798421907271</v>
+        <v>0.05418877175032165</v>
       </c>
       <c r="H47" t="n">
-        <v>53.77513664642423</v>
+        <v>34.22852711201467</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.03012034174997524</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.007620549102672545</v>
+        <v>-0.004262616083523408</v>
       </c>
       <c r="H48" t="n">
-        <v>-74.69965923385045</v>
+        <v>85.84804874092468</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.034643218916641</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.01666923069967661</v>
+        <v>-0.02227690154934558</v>
       </c>
       <c r="H49" t="n">
-        <v>-51.88313551409197</v>
+        <v>35.69621344093754</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.09003797538347245</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07248314897718734</v>
+        <v>0.08568193691041984</v>
       </c>
       <c r="H50" t="n">
-        <v>-19.49713588240847</v>
+        <v>-4.838001359426636</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.06553556525960107</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07055366005404726</v>
+        <v>0.08464258222337295</v>
       </c>
       <c r="H51" t="n">
-        <v>7.657055790345886</v>
+        <v>29.15518755058373</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.01470322082648128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02908622899941378</v>
+        <v>0.0432346214757126</v>
       </c>
       <c r="H52" t="n">
-        <v>97.82215980207506</v>
+        <v>194.0486440756216</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.02817170113177487</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04858106178486105</v>
+        <v>0.0385910733103315</v>
       </c>
       <c r="H53" t="n">
-        <v>72.44631965112842</v>
+        <v>36.98524320494306</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.01940294010798635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05669602557152017</v>
+        <v>0.05732570957338767</v>
       </c>
       <c r="H54" t="n">
-        <v>192.2032705145742</v>
+        <v>195.4485725067621</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06524260029020125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04789707508598226</v>
+        <v>0.05490481986167797</v>
       </c>
       <c r="H55" t="n">
-        <v>-26.58619541076769</v>
+        <v>-15.84513857899668</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.0641781204552333</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07192088038548651</v>
+        <v>0.06298431370551012</v>
       </c>
       <c r="H56" t="n">
-        <v>12.06448533445924</v>
+        <v>-1.860146014335063</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07576686946588479</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07504767424240552</v>
+        <v>0.07417639971076399</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.9492212474254297</v>
+        <v>-2.099162557899967</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02847630423672948</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02406101159414921</v>
+        <v>0.03063793027033976</v>
       </c>
       <c r="H58" t="n">
-        <v>-15.50514633456301</v>
+        <v>7.590964107000091</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02686028148673385</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02334405342054357</v>
+        <v>0.03170554562183664</v>
       </c>
       <c r="H59" t="n">
-        <v>-13.09080870178866</v>
+        <v>18.03876901847003</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04500636224518111</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04666864323451768</v>
+        <v>0.04834826993855606</v>
       </c>
       <c r="H60" t="n">
-        <v>3.69343556424525</v>
+        <v>7.425411712169135</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.05002809311484576</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04163369027346926</v>
+        <v>0.04848728832975869</v>
       </c>
       <c r="H61" t="n">
-        <v>-16.77937798289872</v>
+        <v>-3.079879102227544</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.01272562495970764</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.008486610719061359</v>
+        <v>-0.002268153239988812</v>
       </c>
       <c r="H62" t="n">
-        <v>-33.31085313348468</v>
+        <v>82.17648840689297</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.004162259998573769</v>
       </c>
       <c r="G63" t="n">
-        <v>0.008933166316222485</v>
+        <v>-0.009420017140871786</v>
       </c>
       <c r="H63" t="n">
-        <v>114.6229769231981</v>
+        <v>-326.3197672442286</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.0376710040004436</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04778888479939027</v>
+        <v>0.03922446446398845</v>
       </c>
       <c r="H64" t="n">
-        <v>26.85853766686848</v>
+        <v>4.123756466715254</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.07640761714161863</v>
       </c>
       <c r="G65" t="n">
-        <v>0.06446976332666735</v>
+        <v>0.06600563678689129</v>
       </c>
       <c r="H65" t="n">
-        <v>-15.62390539260624</v>
+        <v>-13.61380022550325</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>-0.006238749439107168</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01352524139695316</v>
+        <v>0.01216494778629417</v>
       </c>
       <c r="H66" t="n">
-        <v>-316.7941112071455</v>
+        <v>294.9901643755564</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.005892943546921596</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01223967969059512</v>
+        <v>0.009441695153602212</v>
       </c>
       <c r="H67" t="n">
-        <v>107.7006099437179</v>
+        <v>60.22035640464335</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0001716157251843049</v>
       </c>
       <c r="G68" t="n">
-        <v>0.004817529690178214</v>
+        <v>0.00558675620336487</v>
       </c>
       <c r="H68" t="n">
-        <v>2707.160990057571</v>
+        <v>3155.387114068383</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.007043594041830695</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01060002760174764</v>
+        <v>0.01940949948935718</v>
       </c>
       <c r="H69" t="n">
-        <v>50.49174524817722</v>
+        <v>175.5624383530268</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06299908755829023</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07444675284786638</v>
+        <v>-0.07715295081372227</v>
       </c>
       <c r="H70" t="n">
-        <v>18.17116046162437</v>
+        <v>-22.46677500263175</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.04730516206304128</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.05660812087880374</v>
+        <v>-0.06839326921497534</v>
       </c>
       <c r="H71" t="n">
-        <v>19.66584281724871</v>
+        <v>-44.57887095668538</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.06847592646162251</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05812406976391649</v>
+        <v>0.07865730049432745</v>
       </c>
       <c r="H72" t="n">
-        <v>-15.11751243483758</v>
+        <v>14.86854513521788</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.07366264370932236</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0783818669757371</v>
+        <v>0.07270702555720079</v>
       </c>
       <c r="H73" t="n">
-        <v>6.406535292212831</v>
+        <v>-1.297290056398875</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.06303615637490191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04698062282722014</v>
+        <v>0.04464947336051635</v>
       </c>
       <c r="H74" t="n">
-        <v>-25.47035617494334</v>
+        <v>-29.1684710359439</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.02646870739540554</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03776259522254558</v>
+        <v>0.04170109565861412</v>
       </c>
       <c r="H75" t="n">
-        <v>42.66883024707299</v>
+        <v>57.54866694341347</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.01714470650454962</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0173385874932889</v>
+        <v>0.004431988579829375</v>
       </c>
       <c r="H76" t="n">
-        <v>1.130850438809373</v>
+        <v>-74.14952201921172</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.01169430463304436</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.00196783135630898</v>
+        <v>-0.001384228834054017</v>
       </c>
       <c r="H77" t="n">
-        <v>-83.17273734473687</v>
+        <v>88.16322237627855</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.002539526868269664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0224969660041194</v>
+        <v>0.02234497403522264</v>
       </c>
       <c r="H78" t="n">
-        <v>785.8723365052628</v>
+        <v>779.8872858725707</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>-0.006752083176529837</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009636307338986003</v>
+        <v>0.01698524977356368</v>
       </c>
       <c r="H79" t="n">
-        <v>-242.7160638731717</v>
+        <v>351.555695175738</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.01234481053610307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03691634179709305</v>
+        <v>0.04294348819742704</v>
       </c>
       <c r="H80" t="n">
-        <v>199.0434052359832</v>
+        <v>247.8667256320903</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.04004608055976637</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04469180713325453</v>
+        <v>0.06441263985163602</v>
       </c>
       <c r="H81" t="n">
-        <v>11.60095197469998</v>
+        <v>60.84630243777296</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.03928809251547295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04066057089433817</v>
+        <v>0.03891807776766881</v>
       </c>
       <c r="H82" t="n">
-        <v>3.493369850737072</v>
+        <v>-0.9417987082432567</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.04149682722649796</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04497152316328029</v>
+        <v>0.04140464923263911</v>
       </c>
       <c r="H83" t="n">
-        <v>8.37340145986764</v>
+        <v>-0.2221326304194833</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03654648917907651</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01799974370699574</v>
+        <v>0.03383422956172163</v>
       </c>
       <c r="H84" t="n">
-        <v>-50.7483643126495</v>
+        <v>-7.421395811961327</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.03101871278460367</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04195669022177672</v>
+        <v>0.03258570072700229</v>
       </c>
       <c r="H85" t="n">
-        <v>35.26251238446677</v>
+        <v>5.051750384614285</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.03261223752283318</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02567583274719039</v>
+        <v>0.03972508165904504</v>
       </c>
       <c r="H86" t="n">
-        <v>-21.26933109323249</v>
+        <v>21.81035303459894</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.05399281271560582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05044722953426831</v>
+        <v>0.05344717318392356</v>
       </c>
       <c r="H87" t="n">
-        <v>-6.566768803123879</v>
+        <v>-1.010578082968721</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.08448630414914524</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0760929097974728</v>
+        <v>0.07053613073653989</v>
       </c>
       <c r="H88" t="n">
-        <v>-9.934621281166974</v>
+        <v>-16.51175720502444</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.09030780820119737</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07968235128012646</v>
+        <v>0.08006051921440764</v>
       </c>
       <c r="H89" t="n">
-        <v>-11.76582305862011</v>
+        <v>-11.34706864323373</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.04974785729329481</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02124683771432216</v>
+        <v>-0.02560413319650809</v>
       </c>
       <c r="H90" t="n">
-        <v>-57.29094905724536</v>
+        <v>48.53218894322288</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.0205140569395008</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01804468355851164</v>
+        <v>-0.04138885455675678</v>
       </c>
       <c r="H91" t="n">
-        <v>-12.03746966420018</v>
+        <v>-101.7585048087712</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03950860788423817</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0348210170065203</v>
+        <v>0.05934994678014099</v>
       </c>
       <c r="H92" t="n">
-        <v>-11.86473310184125</v>
+        <v>50.22029364851009</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04921641955585528</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03779711518357706</v>
+        <v>0.03801321880132452</v>
       </c>
       <c r="H93" t="n">
-        <v>-23.2022249390136</v>
+        <v>-22.76313648093874</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.09075840206556264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1078059229534828</v>
+        <v>0.1018870004070146</v>
       </c>
       <c r="H94" t="n">
-        <v>18.78340792691046</v>
+        <v>12.26178302854297</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.1040519379641745</v>
       </c>
       <c r="G95" t="n">
-        <v>0.09736242741973049</v>
+        <v>0.08576863645728017</v>
       </c>
       <c r="H95" t="n">
-        <v>-6.42901100674092</v>
+        <v>-17.57132242283594</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1120414179740702</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.08805387950638946</v>
+        <v>-0.1024162604199475</v>
       </c>
       <c r="H96" t="n">
-        <v>-21.40952774556298</v>
+        <v>8.59071379866886</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1069875373380423</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.08156372860989601</v>
+        <v>-0.1097266203546112</v>
       </c>
       <c r="H97" t="n">
-        <v>-23.76333670324251</v>
+        <v>-2.56018886378736</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.09673381833469225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.08038243134228784</v>
+        <v>0.1100264703176301</v>
       </c>
       <c r="H98" t="n">
-        <v>-16.90348553783926</v>
+        <v>13.74147346995671</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1138977837115592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1199512655265165</v>
+        <v>0.1163440653965766</v>
       </c>
       <c r="H99" t="n">
-        <v>5.314837231852952</v>
+        <v>2.147786906207492</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.03841854759081696</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01110959401797696</v>
+        <v>0.01945474732609909</v>
       </c>
       <c r="H100" t="n">
-        <v>-71.08273291249448</v>
+        <v>-49.36105463094268</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.02016612812549264</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03358444302409204</v>
+        <v>0.03606859534982495</v>
       </c>
       <c r="H101" t="n">
-        <v>66.53887555954226</v>
+        <v>78.85731522368688</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.00238001325517331</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.01144847294657932</v>
+        <v>-0.0112464296549436</v>
       </c>
       <c r="H102" t="n">
-        <v>381.0255960421387</v>
+        <v>-372.5364293874341</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00649003682782449</v>
       </c>
       <c r="G103" t="n">
-        <v>0.005790969198620801</v>
+        <v>-0.007302186352905315</v>
       </c>
       <c r="H103" t="n">
-        <v>-189.2286030457238</v>
+        <v>-12.51378916062428</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04589909260773555</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07268567048906394</v>
+        <v>0.06708885991050233</v>
       </c>
       <c r="H104" t="n">
-        <v>58.35971118264316</v>
+        <v>46.16598302685308</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.06644927337649718</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07628546380561438</v>
+        <v>0.08509763412923702</v>
       </c>
       <c r="H105" t="n">
-        <v>14.80255528662592</v>
+        <v>28.06405518850365</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.2577623977258113</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.2856550884269096</v>
+        <v>-0.3089092179581785</v>
       </c>
       <c r="H106" t="n">
-        <v>10.82108598740168</v>
+        <v>-19.84262277338584</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.289419149351508</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.2918489958654099</v>
+        <v>-0.2561027670248489</v>
       </c>
       <c r="H107" t="n">
-        <v>0.8395596902784118</v>
+        <v>11.51146439387649</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.1510264032137262</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1569773089572004</v>
+        <v>0.1356279591826272</v>
       </c>
       <c r="H108" t="n">
-        <v>3.940308195682005</v>
+        <v>-10.19586224887298</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.1888068342506362</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1552013963797116</v>
+        <v>0.1635662165245171</v>
       </c>
       <c r="H109" t="n">
-        <v>-17.79884610867119</v>
+        <v>-13.36848733590482</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.07189517001444425</v>
       </c>
       <c r="G110" t="n">
-        <v>0.06409899235383448</v>
+        <v>0.07153071689021522</v>
       </c>
       <c r="H110" t="n">
-        <v>-10.84381281669333</v>
+        <v>-0.5069229604100099</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.06540269897069602</v>
       </c>
       <c r="G111" t="n">
-        <v>0.09229508832177302</v>
+        <v>0.07941427411208594</v>
       </c>
       <c r="H111" t="n">
-        <v>41.11816450132473</v>
+        <v>21.42354270068866</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.08418620187233398</v>
       </c>
       <c r="G112" t="n">
-        <v>0.08314256881185668</v>
+        <v>0.09982452722149088</v>
       </c>
       <c r="H112" t="n">
-        <v>-1.239672342101793</v>
+        <v>18.57587704558993</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.0770204906452046</v>
       </c>
       <c r="G113" t="n">
-        <v>0.08968754589136396</v>
+        <v>0.1022713326052492</v>
       </c>
       <c r="H113" t="n">
-        <v>16.44634452474504</v>
+        <v>32.7845768684632</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_trimester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>-0.02128444168333563</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01885046112689924</v>
+        <v>-0.03019112133913824</v>
       </c>
       <c r="H2" t="n">
-        <v>11.43549167344165</v>
+        <v>-41.84596330180452</v>
       </c>
       <c r="I2" t="n">
-        <v>70.83923459724811</v>
+        <v>32.08563988867447</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.002664891383783825</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.006403498019725742</v>
+        <v>-0.01475073058333443</v>
       </c>
       <c r="H3" t="n">
-        <v>-340.2911450234623</v>
+        <v>-653.5208929374887</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05321994618623679</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07244115284276566</v>
+        <v>0.06655118008877101</v>
       </c>
       <c r="H4" t="n">
-        <v>36.11654658437003</v>
+        <v>25.04931864433529</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.0852934825407035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08787563435627133</v>
+        <v>0.08786576628427148</v>
       </c>
       <c r="H5" t="n">
-        <v>3.027372946503362</v>
+        <v>3.015803396631674</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.0554920936022294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04036126285929701</v>
+        <v>0.008706968918908438</v>
       </c>
       <c r="H6" t="n">
-        <v>-27.26664243629205</v>
+        <v>-84.30953248705931</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.07491945851042606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05095743817488263</v>
+        <v>0.04605477636439938</v>
       </c>
       <c r="H7" t="n">
-        <v>-31.98370731978634</v>
+        <v>-38.52761715036925</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.01989470793288118</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004457891063819145</v>
+        <v>-0.04548174232445804</v>
       </c>
       <c r="H8" t="n">
-        <v>122.4074215055518</v>
+        <v>-128.6122645172771</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.007233984490205318</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.003488549258619251</v>
+        <v>-0.01099229128433011</v>
       </c>
       <c r="H9" t="n">
-        <v>51.77554965257829</v>
+        <v>-51.95348150405174</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04956874841392311</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03724368750435578</v>
+        <v>-0.04931382444810017</v>
       </c>
       <c r="H10" t="n">
-        <v>24.86457960698763</v>
+        <v>0.5142836443926337</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.07728189684970925</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06319637835264041</v>
+        <v>-0.03290940351321592</v>
       </c>
       <c r="H11" t="n">
-        <v>18.22615524624229</v>
+        <v>57.41641334552759</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.07980687010666844</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0772223572828591</v>
+        <v>-0.06378944012518176</v>
       </c>
       <c r="H12" t="n">
-        <v>3.238459070447097</v>
+        <v>20.07023951707174</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.0456853607372041</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03610588405226419</v>
+        <v>-0.04316648070382337</v>
       </c>
       <c r="H13" t="n">
-        <v>20.96837264795594</v>
+        <v>5.513538675704202</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05569564680090808</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04941011081743683</v>
+        <v>-0.04099440120382326</v>
       </c>
       <c r="H14" t="n">
-        <v>11.28550675771804</v>
+        <v>26.39568160441065</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08457829896791694</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.110765052308919</v>
+        <v>-0.1132460958932492</v>
       </c>
       <c r="H15" t="n">
-        <v>-30.96155120231903</v>
+        <v>-33.89497929747537</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.1551086605234518</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1495430293261399</v>
+        <v>-0.2047353989382523</v>
       </c>
       <c r="H16" t="n">
-        <v>3.588214338599361</v>
+        <v>-31.99482108047548</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.196307304145773</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1833059240349867</v>
+        <v>-0.2111792599726685</v>
       </c>
       <c r="H17" t="n">
-        <v>6.622973183479611</v>
+        <v>-7.575854546834369</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1089990278022111</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.09242055470663356</v>
+        <v>-0.106466348560467</v>
       </c>
       <c r="H18" t="n">
-        <v>15.20974400401142</v>
+        <v>2.323579661957985</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.08814841109674791</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.08125691104950103</v>
+        <v>-0.09076967625412255</v>
       </c>
       <c r="H19" t="n">
-        <v>7.818064967368575</v>
+        <v>-2.973695299507612</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.09184313783912948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09689795896768813</v>
+        <v>0.1061264729300825</v>
       </c>
       <c r="H20" t="n">
-        <v>5.503754823155727</v>
+        <v>15.55188055091433</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07533414722486551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1364446309677832</v>
+        <v>0.1377826394454862</v>
       </c>
       <c r="H21" t="n">
-        <v>81.11923476150665</v>
+        <v>82.89533302105043</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1204592976011019</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1215781791715561</v>
+        <v>0.1212809707652487</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9288461685700257</v>
+        <v>0.6821168481886334</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1312986137888283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1559083623188671</v>
+        <v>0.1440795728807831</v>
       </c>
       <c r="H23" t="n">
-        <v>18.74334223331515</v>
+        <v>9.73426811078968</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.09539283949644414</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1030611058986928</v>
+        <v>0.08242225401601061</v>
       </c>
       <c r="H24" t="n">
-        <v>8.038618456822956</v>
+        <v>-13.59702211287779</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.08579711767041676</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07842019325055707</v>
+        <v>0.08227765763586709</v>
       </c>
       <c r="H25" t="n">
-        <v>-8.59810285025843</v>
+        <v>-4.102072575525689</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.03839809538484177</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02783062241051438</v>
+        <v>0.03792719114210986</v>
       </c>
       <c r="H26" t="n">
-        <v>-27.52082588580438</v>
+        <v>-1.226373959469377</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.03582845994197422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03967890784259002</v>
+        <v>0.02115950252383718</v>
       </c>
       <c r="H27" t="n">
-        <v>10.74689759719443</v>
+        <v>-40.94219355756309</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.09796179107594548</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1150055424383736</v>
+        <v>-0.128356549398881</v>
       </c>
       <c r="H28" t="n">
-        <v>-17.39836641942862</v>
+        <v>-31.02715659758793</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1088522038387277</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.09718574415401816</v>
+        <v>-0.09772545301166603</v>
       </c>
       <c r="H29" t="n">
-        <v>10.71770646186846</v>
+        <v>10.22188842730896</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1219412424932649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1241368664579083</v>
+        <v>0.1037072249197217</v>
       </c>
       <c r="H30" t="n">
-        <v>1.800558957536173</v>
+        <v>-14.95311774812391</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1076118874153121</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1302624779911646</v>
+        <v>0.1345575618337443</v>
       </c>
       <c r="H31" t="n">
-        <v>21.04840935317483</v>
+        <v>25.03968201434788</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04499552197252324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05938282121462782</v>
+        <v>0.05799304187274459</v>
       </c>
       <c r="H32" t="n">
-        <v>31.97495797668546</v>
+        <v>28.88625207672522</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08487522191377532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08839402097093793</v>
+        <v>0.07027138288489955</v>
       </c>
       <c r="H33" t="n">
-        <v>4.145849610546358</v>
+        <v>-17.20624547375181</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.0004660235177815866</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01338514441063399</v>
+        <v>0.01309759476566276</v>
       </c>
       <c r="H34" t="n">
-        <v>2972.203633488572</v>
+        <v>2910.50081506858</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.04093434214336689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05572032229598232</v>
+        <v>0.0511910159138294</v>
       </c>
       <c r="H35" t="n">
-        <v>36.12121113570011</v>
+        <v>25.05640309190733</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0415113657231789</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04311088057838562</v>
+        <v>0.04919392575078165</v>
       </c>
       <c r="H36" t="n">
-        <v>3.853197377010394</v>
+        <v>18.50712423877927</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.04216040373967738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05247243738297729</v>
+        <v>0.03412146184693292</v>
       </c>
       <c r="H37" t="n">
-        <v>24.45904860629976</v>
+        <v>-19.06751638903062</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1039739096269103</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1170483052847939</v>
+        <v>-0.1261201183189674</v>
       </c>
       <c r="H38" t="n">
-        <v>-12.57468888570072</v>
+        <v>-21.29977488730045</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.09852995720668313</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1169153396642076</v>
+        <v>-0.1100362960083476</v>
       </c>
       <c r="H39" t="n">
-        <v>-18.65968785407878</v>
+        <v>-11.67801055421956</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1323218375265205</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1291273562273216</v>
+        <v>0.1078282173871122</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.414175436884056</v>
+        <v>-18.51064087173003</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1267009868675925</v>
       </c>
       <c r="G41" t="n">
-        <v>0.128258369512645</v>
+        <v>0.139985986386182</v>
       </c>
       <c r="H41" t="n">
-        <v>1.229179569595622</v>
+        <v>10.48531652912289</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.09447104872146661</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0825137460850929</v>
+        <v>0.06778667971403797</v>
       </c>
       <c r="H42" t="n">
-        <v>-12.65710796926578</v>
+        <v>-28.24608106776014</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1058719362354479</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1147767060700382</v>
+        <v>0.09672060391733273</v>
       </c>
       <c r="H43" t="n">
-        <v>8.410887862470984</v>
+        <v>-8.643775341714337</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.01216440566173687</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.05675120927024847</v>
+        <v>-0.026458123905329</v>
       </c>
       <c r="H44" t="n">
-        <v>-366.5349943792106</v>
+        <v>-117.5044522606888</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.03656027190585381</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.03205542165699966</v>
+        <v>-0.05202282113297867</v>
       </c>
       <c r="H45" t="n">
-        <v>12.32170882222805</v>
+        <v>-42.29331025475522</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05457460206694808</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06726437074872002</v>
+        <v>0.07121375278184142</v>
       </c>
       <c r="H46" t="n">
-        <v>23.25215063630711</v>
+        <v>30.48881729725058</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04037053293827826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05418877175032165</v>
+        <v>0.05925552612292129</v>
       </c>
       <c r="H47" t="n">
-        <v>34.22852711201467</v>
+        <v>46.77915254058185</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.03012034174997524</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.004262616083523408</v>
+        <v>-0.009315524994356431</v>
       </c>
       <c r="H48" t="n">
-        <v>85.84804874092468</v>
+        <v>69.07231308434908</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.034643218916641</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.02227690154934558</v>
+        <v>-0.007743368215170536</v>
       </c>
       <c r="H49" t="n">
-        <v>35.69621344093754</v>
+        <v>77.64824269418284</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.09003797538347245</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08568193691041984</v>
+        <v>0.07757446235978034</v>
       </c>
       <c r="H50" t="n">
-        <v>-4.838001359426636</v>
+        <v>-13.84250697620633</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.06553556525960107</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08464258222337295</v>
+        <v>0.07957516765211964</v>
       </c>
       <c r="H51" t="n">
-        <v>29.15518755058373</v>
+        <v>21.42287525392443</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.01470322082648128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0432346214757126</v>
+        <v>0.03159004676977112</v>
       </c>
       <c r="H52" t="n">
-        <v>194.0486440756216</v>
+        <v>114.8512026213724</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.02817170113177487</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0385910733103315</v>
+        <v>0.03847700936166255</v>
       </c>
       <c r="H53" t="n">
-        <v>36.98524320494306</v>
+        <v>36.58035480954438</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.01940294010798635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05732570957338767</v>
+        <v>0.04151924302580926</v>
       </c>
       <c r="H54" t="n">
-        <v>195.4485725067621</v>
+        <v>113.9842868902107</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06524260029020125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05490481986167797</v>
+        <v>0.04736107604955386</v>
       </c>
       <c r="H55" t="n">
-        <v>-15.84513857899668</v>
+        <v>-27.4077430407583</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.0641781204552333</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06298431370551012</v>
+        <v>0.06517051862067241</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.860146014335063</v>
+        <v>1.546318524755408</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07576686946588479</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07417639971076399</v>
+        <v>0.08177640914174653</v>
       </c>
       <c r="H57" t="n">
-        <v>-2.099162557899967</v>
+        <v>7.931619345270197</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02847630423672948</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03063793027033976</v>
+        <v>0.02562158853640206</v>
       </c>
       <c r="H58" t="n">
-        <v>7.590964107000091</v>
+        <v>-10.02488130691249</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02686028148673385</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03170554562183664</v>
+        <v>0.02944215130061706</v>
       </c>
       <c r="H59" t="n">
-        <v>18.03876901847003</v>
+        <v>9.612221730283727</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04500636224518111</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04834826993855606</v>
+        <v>0.04575172873435974</v>
       </c>
       <c r="H60" t="n">
-        <v>7.425411712169135</v>
+        <v>1.6561358261263</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.05002809311484576</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04848728832975869</v>
+        <v>0.03158668718766083</v>
       </c>
       <c r="H61" t="n">
-        <v>-3.079879102227544</v>
+        <v>-36.86210042995317</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.01272562495970764</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.002268153239988812</v>
+        <v>0.001540426582629559</v>
       </c>
       <c r="H62" t="n">
-        <v>82.17648840689297</v>
+        <v>112.1049189136637</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.004162259998573769</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.009420017140871786</v>
+        <v>-0.002267589109330974</v>
       </c>
       <c r="H63" t="n">
-        <v>-326.3197672442286</v>
+        <v>-154.4797564329951</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.0376710040004436</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03922446446398845</v>
+        <v>0.05592986547873697</v>
       </c>
       <c r="H64" t="n">
-        <v>4.123756466715254</v>
+        <v>48.46927222348086</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.07640761714161863</v>
       </c>
       <c r="G65" t="n">
-        <v>0.06600563678689129</v>
+        <v>0.03129939195293273</v>
       </c>
       <c r="H65" t="n">
-        <v>-13.61380022550325</v>
+        <v>-59.03629360025652</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>-0.006238749439107168</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01216494778629417</v>
+        <v>-0.001702622373159057</v>
       </c>
       <c r="H66" t="n">
-        <v>294.9901643755564</v>
+        <v>72.70891562840643</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.005892943546921596</v>
       </c>
       <c r="G67" t="n">
-        <v>0.009441695153602212</v>
+        <v>0.01207035893690063</v>
       </c>
       <c r="H67" t="n">
-        <v>60.22035640464335</v>
+        <v>104.8273301923288</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0001716157251843049</v>
       </c>
       <c r="G68" t="n">
-        <v>0.00558675620336487</v>
+        <v>-0.001640899281796999</v>
       </c>
       <c r="H68" t="n">
-        <v>3155.387114068383</v>
+        <v>-1056.147392690718</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.007043594041830695</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01940949948935718</v>
+        <v>0.02164197400971941</v>
       </c>
       <c r="H69" t="n">
-        <v>175.5624383530268</v>
+        <v>207.2575432540752</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06299908755829023</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07715295081372227</v>
+        <v>-0.07882561759946188</v>
       </c>
       <c r="H70" t="n">
-        <v>-22.46677500263175</v>
+        <v>-25.12184010050634</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.04730516206304128</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06839326921497534</v>
+        <v>-0.06192983362433523</v>
       </c>
       <c r="H71" t="n">
-        <v>-44.57887095668538</v>
+        <v>-30.91559340142281</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.06847592646162251</v>
       </c>
       <c r="G72" t="n">
-        <v>0.07865730049432745</v>
+        <v>0.08048187286260919</v>
       </c>
       <c r="H72" t="n">
-        <v>14.86854513521788</v>
+        <v>17.53309085597467</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.07366264370932236</v>
       </c>
       <c r="G73" t="n">
-        <v>0.07270702555720079</v>
+        <v>0.07025880568546167</v>
       </c>
       <c r="H73" t="n">
-        <v>-1.297290056398875</v>
+        <v>-4.620846948274713</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.06303615637490191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04464947336051635</v>
+        <v>0.05501708739602662</v>
       </c>
       <c r="H74" t="n">
-        <v>-29.1684710359439</v>
+        <v>-12.72137998259696</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.02646870739540554</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04170109565861412</v>
+        <v>0.04343391921860916</v>
       </c>
       <c r="H75" t="n">
-        <v>57.54866694341347</v>
+        <v>64.09535444918801</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.01714470650454962</v>
       </c>
       <c r="G76" t="n">
-        <v>0.004431988579829375</v>
+        <v>0.01088720251009816</v>
       </c>
       <c r="H76" t="n">
-        <v>-74.14952201921172</v>
+        <v>-36.4981692325321</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.01169430463304436</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.001384228834054017</v>
+        <v>-0.002981362379250507</v>
       </c>
       <c r="H77" t="n">
-        <v>88.16322237627855</v>
+        <v>74.50586013617149</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.002539526868269664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02234497403522264</v>
+        <v>0.02111362676114432</v>
       </c>
       <c r="H78" t="n">
-        <v>779.8872858725707</v>
+        <v>731.4000148984576</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>-0.006752083176529837</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01698524977356368</v>
+        <v>0.02919370495220567</v>
       </c>
       <c r="H79" t="n">
-        <v>351.555695175738</v>
+        <v>532.3658964048703</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.01234481053610307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.04294348819742704</v>
+        <v>0.04504992503142217</v>
       </c>
       <c r="H80" t="n">
-        <v>247.8667256320903</v>
+        <v>264.9300643348977</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.04004608055976637</v>
       </c>
       <c r="G81" t="n">
-        <v>0.06441263985163602</v>
+        <v>0.03989161508821744</v>
       </c>
       <c r="H81" t="n">
-        <v>60.84630243777296</v>
+        <v>-0.3857193248123268</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.03928809251547295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.03891807776766881</v>
+        <v>0.0597368806311532</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.9417987082432567</v>
+        <v>52.04830982218552</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.04149682722649796</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04140464923263911</v>
+        <v>0.02050192255127292</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.2221326304194833</v>
+        <v>-50.59399977890035</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03654648917907651</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03383422956172163</v>
+        <v>0.02938130965260145</v>
       </c>
       <c r="H84" t="n">
-        <v>-7.421395811961327</v>
+        <v>-19.60565758140525</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.03101871278460367</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03258570072700229</v>
+        <v>0.0168047881172877</v>
       </c>
       <c r="H85" t="n">
-        <v>5.051750384614285</v>
+        <v>-45.82370895278136</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.03261223752283318</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03972508165904504</v>
+        <v>0.04411475844934118</v>
       </c>
       <c r="H86" t="n">
-        <v>21.81035303459894</v>
+        <v>35.27056651189483</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.05399281271560582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05344717318392356</v>
+        <v>0.05363883937342646</v>
       </c>
       <c r="H87" t="n">
-        <v>-1.010578082968721</v>
+        <v>-0.6555934473053503</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.08448630414914524</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07053613073653989</v>
+        <v>0.08692063912188777</v>
       </c>
       <c r="H88" t="n">
-        <v>-16.51175720502444</v>
+        <v>2.881336800394486</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.09030780820119737</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08006051921440764</v>
+        <v>0.0815319555691202</v>
       </c>
       <c r="H89" t="n">
-        <v>-11.34706864323373</v>
+        <v>-9.717711908725974</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.04974785729329481</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02560413319650809</v>
+        <v>-0.03407486620481583</v>
       </c>
       <c r="H90" t="n">
-        <v>48.53218894322288</v>
+        <v>31.50485657317233</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.0205140569395008</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04138885455675678</v>
+        <v>-0.0175475850919937</v>
       </c>
       <c r="H91" t="n">
-        <v>-101.7585048087712</v>
+        <v>14.46067862761469</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03950860788423817</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05934994678014099</v>
+        <v>0.03874480377046106</v>
       </c>
       <c r="H92" t="n">
-        <v>50.22029364851009</v>
+        <v>-1.933260002516641</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04921641955585528</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03801321880132452</v>
+        <v>0.04784445044762929</v>
       </c>
       <c r="H93" t="n">
-        <v>-22.76313648093874</v>
+        <v>-2.787624781743734</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.09075840206556264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1018870004070146</v>
+        <v>0.08103415261460362</v>
       </c>
       <c r="H94" t="n">
-        <v>12.26178302854297</v>
+        <v>-10.71443439907014</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.1040519379641745</v>
       </c>
       <c r="G95" t="n">
-        <v>0.08576863645728017</v>
+        <v>0.09286165620027013</v>
       </c>
       <c r="H95" t="n">
-        <v>-17.57132242283594</v>
+        <v>-10.75451546876256</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1120414179740702</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1024162604199475</v>
+        <v>-0.09318418685520811</v>
       </c>
       <c r="H96" t="n">
-        <v>8.59071379866886</v>
+        <v>16.83058949077762</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1069875373380423</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1097266203546112</v>
+        <v>-0.1193928942012821</v>
       </c>
       <c r="H97" t="n">
-        <v>-2.56018886378736</v>
+        <v>-11.59514198746656</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.09673381833469225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1100264703176301</v>
+        <v>0.104909992346647</v>
       </c>
       <c r="H98" t="n">
-        <v>13.74147346995671</v>
+        <v>8.452239509109173</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1138977837115592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1163440653965766</v>
+        <v>0.1225317565250777</v>
       </c>
       <c r="H99" t="n">
-        <v>2.147786906207492</v>
+        <v>7.580457259276987</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.03841854759081696</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01945474732609909</v>
+        <v>0.03785643143509138</v>
       </c>
       <c r="H100" t="n">
-        <v>-49.36105463094268</v>
+        <v>-1.463137445258186</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.02016612812549264</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03606859534982495</v>
+        <v>0.02866099616573099</v>
       </c>
       <c r="H101" t="n">
-        <v>78.85731522368688</v>
+        <v>42.1244375091504</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.00238001325517331</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0112464296549436</v>
+        <v>-0.002062757582666203</v>
       </c>
       <c r="H102" t="n">
-        <v>-372.5364293874341</v>
+        <v>13.3299960333206</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00649003682782449</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.007302186352905315</v>
+        <v>0.008305485156923635</v>
       </c>
       <c r="H103" t="n">
-        <v>-12.51378916062428</v>
+        <v>227.9728509600414</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04589909260773555</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06708885991050233</v>
+        <v>0.07495608576828784</v>
       </c>
       <c r="H104" t="n">
-        <v>46.16598302685308</v>
+        <v>63.30624748702592</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.06644927337649718</v>
       </c>
       <c r="G105" t="n">
-        <v>0.08509763412923702</v>
+        <v>0.07983766630743733</v>
       </c>
       <c r="H105" t="n">
-        <v>28.06405518850365</v>
+        <v>20.14829094530861</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.2577623977258113</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3089092179581785</v>
+        <v>-0.2925859555331576</v>
       </c>
       <c r="H106" t="n">
-        <v>-19.84262277338584</v>
+        <v>-13.5099448618526</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.289419149351508</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.2561027670248489</v>
+        <v>-0.2453019609446825</v>
       </c>
       <c r="H107" t="n">
-        <v>11.51146439387649</v>
+        <v>15.24335501146949</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.1510264032137262</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1356279591826272</v>
+        <v>0.1800662289412169</v>
       </c>
       <c r="H108" t="n">
-        <v>-10.19586224887298</v>
+        <v>19.22831048713698</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.1888068342506362</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1635662165245171</v>
+        <v>0.2024368311298295</v>
       </c>
       <c r="H109" t="n">
-        <v>-13.36848733590482</v>
+        <v>7.219016691471988</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.07189517001444425</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07153071689021522</v>
+        <v>0.05994544874735357</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.5069229604100099</v>
+        <v>-16.62103485490039</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.06540269897069602</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07941427411208594</v>
+        <v>0.09989521226668716</v>
       </c>
       <c r="H111" t="n">
-        <v>21.42354270068866</v>
+        <v>52.73866956384425</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.08418620187233398</v>
       </c>
       <c r="G112" t="n">
-        <v>0.09982452722149088</v>
+        <v>0.1116712037177058</v>
       </c>
       <c r="H112" t="n">
-        <v>18.57587704558993</v>
+        <v>32.647870118968</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.0770204906452046</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1022713326052492</v>
+        <v>0.09267003957265206</v>
       </c>
       <c r="H113" t="n">
-        <v>32.7845768684632</v>
+        <v>20.31868246534188</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>